--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>195.993473728896</v>
+        <v>0.6860874071306666</v>
       </c>
       <c r="R2">
-        <v>1763.941263560064</v>
+        <v>6.174786664176</v>
       </c>
       <c r="S2">
-        <v>0.02445295292620913</v>
+        <v>0.0001691316043644326</v>
       </c>
       <c r="T2">
-        <v>0.02445295292620913</v>
+        <v>0.0001691316043644326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>196.9116592743191</v>
+        <v>55.92904874241689</v>
       </c>
       <c r="R3">
-        <v>1772.204933468872</v>
+        <v>503.361438681752</v>
       </c>
       <c r="S3">
-        <v>0.02456750953614408</v>
+        <v>0.01378741199163267</v>
       </c>
       <c r="T3">
-        <v>0.02456750953614408</v>
+        <v>0.01378741199163267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>9.455654905393111</v>
+        <v>4.302748344891333</v>
       </c>
       <c r="R4">
-        <v>85.100894148538</v>
+        <v>38.724735104022</v>
       </c>
       <c r="S4">
-        <v>0.001179726446442216</v>
+        <v>0.001060696819653593</v>
       </c>
       <c r="T4">
-        <v>0.001179726446442216</v>
+        <v>0.001060696819653593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>3453.939141408576</v>
+        <v>42.56832070029067</v>
       </c>
       <c r="R5">
-        <v>31085.45227267719</v>
+        <v>383.1148863026161</v>
       </c>
       <c r="S5">
-        <v>0.4309276713554316</v>
+        <v>0.01049377717811495</v>
       </c>
       <c r="T5">
-        <v>0.4309276713554316</v>
+        <v>0.01049377717811495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>3470.120073018571</v>
@@ -818,10 +818,10 @@
         <v>31231.08065716713</v>
       </c>
       <c r="S6">
-        <v>0.4329464710196934</v>
+        <v>0.8554405301525602</v>
       </c>
       <c r="T6">
-        <v>0.4329464710196934</v>
+        <v>0.8554405301525602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>166.6344086056892</v>
+        <v>266.9641936790363</v>
       </c>
       <c r="R7">
-        <v>1499.709677451203</v>
+        <v>2402.677743111327</v>
       </c>
       <c r="S7">
-        <v>0.02078999505441629</v>
+        <v>0.06581097672908204</v>
       </c>
       <c r="T7">
-        <v>0.02078999505441629</v>
+        <v>0.06581097672908204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>254.305157452992</v>
+        <v>2.432241912221333</v>
       </c>
       <c r="R8">
-        <v>2288.746417076928</v>
+        <v>21.890177209992</v>
       </c>
       <c r="S8">
-        <v>0.03172815872783522</v>
+        <v>0.0005995868347690917</v>
       </c>
       <c r="T8">
-        <v>0.03172815872783522</v>
+        <v>0.0005995868347690917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>255.4965201818493</v>
+        <v>198.2735363572538</v>
       </c>
       <c r="R9">
-        <v>2299.468681636644</v>
+        <v>1784.461827215284</v>
       </c>
       <c r="S9">
-        <v>0.03187679804817853</v>
+        <v>0.04887762252824051</v>
       </c>
       <c r="T9">
-        <v>0.03187679804817853</v>
+        <v>0.04887762252824051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>12.26888714092233</v>
+        <v>15.25363204952766</v>
       </c>
       <c r="R10">
-        <v>110.419984268301</v>
+        <v>137.282688445749</v>
       </c>
       <c r="S10">
-        <v>0.00153071688564962</v>
+        <v>0.00376026616158253</v>
       </c>
       <c r="T10">
-        <v>0.00153071688564962</v>
+        <v>0.00376026616158253</v>
       </c>
     </row>
   </sheetData>
